--- a/Admiralteisky/Semenovsky/budget/website/2014/Semenovsky_vedomst_2014_exported.xlsx
+++ b/Admiralteisky/Semenovsky/budget/website/2014/Semenovsky_vedomst_2014_exported.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="100" windowWidth="24480" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="273">
   <si>
     <t>Наименование</t>
   </si>
@@ -900,8 +905,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,34 +1160,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1191,37 +1178,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,24 +1220,42 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1541,21 +1546,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H215"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="27"/>
-      <c r="B1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29" t="s">
+    <row r="1" spans="1:8" ht="24">
+      <c r="A1" s="56"/>
+      <c r="B1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1567,17 +1572,17 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="41" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
+    <row r="2" spans="1:8" ht="25" thickBot="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1587,12 +1592,12 @@
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="43"/>
       <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="153.75" thickBot="1">
+    <row r="3" spans="1:8" ht="145" thickBot="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>11</v>
@@ -1609,32 +1614,32 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="137.25" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="41">
         <v>991</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41">
         <v>5325.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" ht="153.75" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" ht="145" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -1650,7 +1655,7 @@
         <v>2902.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="77.25" thickBot="1">
+    <row r="7" spans="1:8" ht="73" thickBot="1">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>21235.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="192" thickBot="1">
+    <row r="8" spans="1:8" ht="181" thickBot="1">
       <c r="A8" s="8">
         <v>42005</v>
       </c>
@@ -1687,20 +1692,14 @@
       <c r="D8" s="2">
         <v>102</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="4">
         <v>1044.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="68.25" thickBot="1">
+    <row r="9" spans="1:8" ht="61" thickBot="1">
       <c r="A9" s="9">
         <v>36892</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>1044.3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="128.25" thickBot="1">
+    <row r="10" spans="1:8" ht="109" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>1044.3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="192" thickBot="1">
+    <row r="11" spans="1:8" ht="181" thickBot="1">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1777,7 @@
         <v>1044.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="26.25" thickBot="1">
+    <row r="12" spans="1:8" ht="25" thickBot="1">
       <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>833.8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="64.5" thickBot="1">
+    <row r="13" spans="1:8" ht="61" thickBot="1">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -1830,7 +1829,7 @@
         <v>210.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="230.25" thickBot="1">
+    <row r="14" spans="1:8" ht="217" thickBot="1">
       <c r="A14" s="8">
         <v>42036</v>
       </c>
@@ -1843,20 +1842,14 @@
       <c r="D14" s="2">
         <v>103</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="4">
         <v>4280.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="102.75" thickBot="1">
+    <row r="15" spans="1:8" ht="97" thickBot="1">
       <c r="A15" s="9">
         <v>36923</v>
       </c>
@@ -1882,7 +1875,7 @@
         <v>4280.8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="128.25" thickBot="1">
+    <row r="16" spans="1:8" ht="109" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
@@ -1908,7 +1901,7 @@
         <v>2648.6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="192" thickBot="1">
+    <row r="17" spans="1:8" ht="181" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
@@ -1934,7 +1927,7 @@
         <v>2648.6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26.25" thickBot="1">
+    <row r="18" spans="1:8" ht="25" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
@@ -1960,7 +1953,7 @@
         <v>2034.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="64.5" thickBot="1">
+    <row r="19" spans="1:8" ht="61" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +1979,7 @@
         <v>614.29999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="153.75" thickBot="1">
+    <row r="20" spans="1:8" ht="145" thickBot="1">
       <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
@@ -2012,7 +2005,7 @@
         <v>1630.2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="153.75" thickBot="1">
+    <row r="21" spans="1:8" ht="133" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
@@ -2038,7 +2031,7 @@
         <v>420.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="26.25" thickBot="1">
+    <row r="22" spans="1:8" ht="25" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
@@ -2064,7 +2057,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="77.25" thickBot="1">
+    <row r="23" spans="1:8" ht="73" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
@@ -2090,7 +2083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39" thickBot="1">
+    <row r="24" spans="1:8" ht="37" thickBot="1">
       <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
@@ -2116,7 +2109,7 @@
         <v>146.80000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="77.25" thickBot="1">
+    <row r="25" spans="1:8" ht="61" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
@@ -2143,42 +2136,42 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="27">
         <v>991</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="27">
         <v>103</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="27">
         <v>242</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="27">
         <v>340</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-    </row>
-    <row r="28" spans="1:8" ht="153.75" thickBot="1">
+    <row r="27" spans="1:8" ht="15" thickBot="1">
+      <c r="A27" s="31"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" ht="133" thickBot="1">
       <c r="A28" s="11" t="s">
         <v>48</v>
       </c>
@@ -2204,7 +2197,7 @@
         <v>1209.4000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39" thickBot="1">
+    <row r="29" spans="1:8" ht="37" thickBot="1">
       <c r="A29" s="16" t="s">
         <v>50</v>
       </c>
@@ -2230,7 +2223,7 @@
         <v>281.3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="39" thickBot="1">
+    <row r="30" spans="1:8" ht="37" thickBot="1">
       <c r="A30" s="16" t="s">
         <v>52</v>
       </c>
@@ -2256,7 +2249,7 @@
         <v>180.8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="77.25" thickBot="1">
+    <row r="31" spans="1:8" ht="73" thickBot="1">
       <c r="A31" s="16" t="s">
         <v>54</v>
       </c>
@@ -2282,7 +2275,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39" thickBot="1">
+    <row r="32" spans="1:8" ht="37" thickBot="1">
       <c r="A32" s="16" t="s">
         <v>55</v>
       </c>
@@ -2309,42 +2302,42 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="60.75" customHeight="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="27">
         <v>991</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="27">
         <v>103</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="27">
         <v>244</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="27">
         <v>340</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="27">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-    </row>
-    <row r="35" spans="1:8" ht="64.5" thickBot="1">
+    <row r="34" spans="1:8" ht="15" thickBot="1">
+      <c r="A34" s="55"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" ht="61" thickBot="1">
       <c r="A35" s="11" t="s">
         <v>57</v>
       </c>
@@ -2370,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="102.75" thickBot="1">
+    <row r="36" spans="1:8" ht="97" thickBot="1">
       <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
@@ -2396,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="26.25" thickBot="1">
+    <row r="37" spans="1:8" ht="25" thickBot="1">
       <c r="A37" s="11" t="s">
         <v>61</v>
       </c>
@@ -2422,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="77.25" thickBot="1">
+    <row r="38" spans="1:8" ht="73" thickBot="1">
       <c r="A38" s="11" t="s">
         <v>63</v>
       </c>
@@ -2448,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="26.25" thickBot="1">
+    <row r="39" spans="1:8" ht="25" thickBot="1">
       <c r="A39" s="11" t="s">
         <v>65</v>
       </c>
@@ -2475,42 +2468,42 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="277.5" customHeight="1">
-      <c r="A40" s="45">
+      <c r="A40" s="52">
         <v>42064</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="29">
-        <v>904</v>
-      </c>
-      <c r="D40" s="29">
+      <c r="C40" s="41">
+        <v>904</v>
+      </c>
+      <c r="D40" s="41">
         <v>104</v>
       </c>
-      <c r="E40" s="29" t="s">
+      <c r="E40" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="29">
-        <v>0</v>
-      </c>
-      <c r="G40" s="29">
-        <v>0</v>
-      </c>
-      <c r="H40" s="29">
+      <c r="F40" s="41">
+        <v>0</v>
+      </c>
+      <c r="G40" s="41">
+        <v>0</v>
+      </c>
+      <c r="H40" s="41">
         <v>12590.7</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A41" s="46"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="1:8" ht="166.5" thickBot="1">
+    <row r="41" spans="1:8" ht="15" thickBot="1">
+      <c r="A41" s="53"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+    </row>
+    <row r="42" spans="1:8" ht="157" thickBot="1">
       <c r="A42" s="9">
         <v>36951</v>
       </c>
@@ -2536,7 +2529,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="128.25" thickBot="1">
+    <row r="43" spans="1:8" ht="109" thickBot="1">
       <c r="A43" s="11" t="s">
         <v>69</v>
       </c>
@@ -2562,7 +2555,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="192" thickBot="1">
+    <row r="44" spans="1:8" ht="181" thickBot="1">
       <c r="A44" s="11" t="s">
         <v>71</v>
       </c>
@@ -2588,7 +2581,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="26.25" thickBot="1">
+    <row r="45" spans="1:8" ht="25" thickBot="1">
       <c r="A45" s="11" t="s">
         <v>72</v>
       </c>
@@ -2614,7 +2607,7 @@
         <v>1389.6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="64.5" thickBot="1">
+    <row r="46" spans="1:8" ht="61" thickBot="1">
       <c r="A46" s="11" t="s">
         <v>73</v>
       </c>
@@ -2640,7 +2633,7 @@
         <v>378.4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="166.5" thickBot="1">
+    <row r="47" spans="1:8" ht="157" thickBot="1">
       <c r="A47" s="9">
         <v>37316</v>
       </c>
@@ -2666,7 +2659,7 @@
         <v>10817.4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="128.25" thickBot="1">
+    <row r="48" spans="1:8" ht="109" thickBot="1">
       <c r="A48" s="11" t="s">
         <v>77</v>
       </c>
@@ -2692,7 +2685,7 @@
         <v>8948.7000000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="192" thickBot="1">
+    <row r="49" spans="1:8" ht="181" thickBot="1">
       <c r="A49" s="11" t="s">
         <v>79</v>
       </c>
@@ -2718,7 +2711,7 @@
         <v>8948.7000000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="26.25" thickBot="1">
+    <row r="50" spans="1:8" ht="25" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>80</v>
       </c>
@@ -2744,7 +2737,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="64.5" thickBot="1">
+    <row r="51" spans="1:8" ht="61" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>81</v>
       </c>
@@ -2771,42 +2764,42 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="137.25" customHeight="1">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="40">
-        <v>904</v>
-      </c>
-      <c r="D52" s="40">
+      <c r="C52" s="27">
+        <v>904</v>
+      </c>
+      <c r="D52" s="27">
         <v>104</v>
       </c>
-      <c r="E52" s="40" t="s">
+      <c r="E52" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="27">
         <v>240</v>
       </c>
-      <c r="G52" s="40">
-        <v>0</v>
-      </c>
-      <c r="H52" s="48">
+      <c r="G52" s="27">
+        <v>0</v>
+      </c>
+      <c r="H52" s="36">
         <v>1818.7</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="49"/>
-    </row>
-    <row r="54" spans="1:8" ht="153.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15" thickBot="1">
+      <c r="A53" s="31"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="37"/>
+    </row>
+    <row r="54" spans="1:8" ht="133" thickBot="1">
       <c r="A54" s="11" t="s">
         <v>83</v>
       </c>
@@ -2832,7 +2825,7 @@
         <v>632.4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="26.25" thickBot="1">
+    <row r="55" spans="1:8" ht="25" thickBot="1">
       <c r="A55" s="11" t="s">
         <v>85</v>
       </c>
@@ -2858,7 +2851,7 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="77.25" thickBot="1">
+    <row r="56" spans="1:8" ht="73" thickBot="1">
       <c r="A56" s="11" t="s">
         <v>86</v>
       </c>
@@ -2884,7 +2877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="39" thickBot="1">
+    <row r="57" spans="1:8" ht="37" thickBot="1">
       <c r="A57" s="11" t="s">
         <v>87</v>
       </c>
@@ -2910,7 +2903,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="77.25" thickBot="1">
+    <row r="58" spans="1:8" ht="61" thickBot="1">
       <c r="A58" s="11" t="s">
         <v>88</v>
       </c>
@@ -2938,41 +2931,41 @@
     </row>
     <row r="59" spans="1:8" ht="60.75" customHeight="1">
       <c r="A59" s="15"/>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="40">
-        <v>904</v>
-      </c>
-      <c r="D59" s="40">
+      <c r="C59" s="27">
+        <v>904</v>
+      </c>
+      <c r="D59" s="27">
         <v>104</v>
       </c>
-      <c r="E59" s="40" t="s">
+      <c r="E59" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="27">
         <v>242</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="27">
         <v>340</v>
       </c>
-      <c r="H59" s="40">
+      <c r="H59" s="27">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1">
       <c r="A60" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-    </row>
-    <row r="61" spans="1:8" ht="153.75" thickBot="1">
+      <c r="B60" s="34"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+    </row>
+    <row r="61" spans="1:8" ht="133" thickBot="1">
       <c r="A61" s="11" t="s">
         <v>90</v>
       </c>
@@ -2998,7 +2991,7 @@
         <v>1186.3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="39" thickBot="1">
+    <row r="62" spans="1:8" ht="37" thickBot="1">
       <c r="A62" s="11" t="s">
         <v>91</v>
       </c>
@@ -3024,7 +3017,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="39" thickBot="1">
+    <row r="63" spans="1:8" ht="37" thickBot="1">
       <c r="A63" s="11" t="s">
         <v>92</v>
       </c>
@@ -3050,7 +3043,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="77.25" thickBot="1">
+    <row r="64" spans="1:8" ht="73" thickBot="1">
       <c r="A64" s="11" t="s">
         <v>93</v>
       </c>
@@ -3076,7 +3069,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="39" thickBot="1">
+    <row r="65" spans="1:8" ht="37" thickBot="1">
       <c r="A65" s="11" t="s">
         <v>94</v>
       </c>
@@ -3102,7 +3095,7 @@
         <v>771.2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="90" thickBot="1">
+    <row r="66" spans="1:8" ht="73" thickBot="1">
       <c r="A66" s="11" t="s">
         <v>95</v>
       </c>
@@ -3128,7 +3121,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="64.5" thickBot="1">
+    <row r="67" spans="1:8" ht="61" thickBot="1">
       <c r="A67" s="11" t="s">
         <v>96</v>
       </c>
@@ -3154,7 +3147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="102.75" thickBot="1">
+    <row r="68" spans="1:8" ht="97" thickBot="1">
       <c r="A68" s="11" t="s">
         <v>97</v>
       </c>
@@ -3180,7 +3173,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="39" thickBot="1">
+    <row r="69" spans="1:8" ht="37" thickBot="1">
       <c r="A69" s="11" t="s">
         <v>98</v>
       </c>
@@ -3206,7 +3199,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="77.25" thickBot="1">
+    <row r="70" spans="1:8" ht="73" thickBot="1">
       <c r="A70" s="11" t="s">
         <v>100</v>
       </c>
@@ -3232,7 +3225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="26.25" thickBot="1">
+    <row r="71" spans="1:8" ht="25" thickBot="1">
       <c r="A71" s="11" t="s">
         <v>102</v>
       </c>
@@ -3258,7 +3251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="204.75" thickBot="1">
+    <row r="72" spans="1:8" ht="193" thickBot="1">
       <c r="A72" s="9">
         <v>37681</v>
       </c>
@@ -3284,7 +3277,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="153.75" thickBot="1">
+    <row r="73" spans="1:8" ht="145" thickBot="1">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -3310,7 +3303,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="153.75" thickBot="1">
+    <row r="74" spans="1:8" ht="145" thickBot="1">
       <c r="A74" s="11" t="s">
         <v>106</v>
       </c>
@@ -3336,7 +3329,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="39" thickBot="1">
+    <row r="75" spans="1:8" ht="37" thickBot="1">
       <c r="A75" s="11" t="s">
         <v>108</v>
       </c>
@@ -3362,7 +3355,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="102.75" thickBot="1">
+    <row r="76" spans="1:8" ht="97" thickBot="1">
       <c r="A76" s="5" t="s">
         <v>110</v>
       </c>
@@ -3388,7 +3381,7 @@
         <v>2902.3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="102.75" thickBot="1">
+    <row r="77" spans="1:8" ht="97" thickBot="1">
       <c r="A77" s="9">
         <v>36982</v>
       </c>
@@ -3414,7 +3407,7 @@
         <v>902.3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="128.25" thickBot="1">
+    <row r="78" spans="1:8" ht="109" thickBot="1">
       <c r="A78" s="11" t="s">
         <v>114</v>
       </c>
@@ -3440,7 +3433,7 @@
         <v>897.3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="192" thickBot="1">
+    <row r="79" spans="1:8" ht="181" thickBot="1">
       <c r="A79" s="11" t="s">
         <v>115</v>
       </c>
@@ -3466,7 +3459,7 @@
         <v>897.3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="26.25" thickBot="1">
+    <row r="80" spans="1:8" ht="25" thickBot="1">
       <c r="A80" s="11" t="s">
         <v>116</v>
       </c>
@@ -3492,7 +3485,7 @@
         <v>700.4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="64.5" thickBot="1">
+    <row r="81" spans="1:8" ht="61" thickBot="1">
       <c r="A81" s="11" t="s">
         <v>117</v>
       </c>
@@ -3518,7 +3511,7 @@
         <v>196.9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="153.75" thickBot="1">
+    <row r="82" spans="1:8" ht="145" thickBot="1">
       <c r="A82" s="11" t="s">
         <v>118</v>
       </c>
@@ -3544,7 +3537,7 @@
         <v>42251</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="153.75" thickBot="1">
+    <row r="83" spans="1:8" ht="133" thickBot="1">
       <c r="A83" s="11" t="s">
         <v>119</v>
       </c>
@@ -3570,7 +3563,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="39" thickBot="1">
+    <row r="84" spans="1:8" ht="37" thickBot="1">
       <c r="A84" s="11" t="s">
         <v>119</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="64.5" thickBot="1">
+    <row r="85" spans="1:8" ht="61" thickBot="1">
       <c r="A85" s="11" t="s">
         <v>120</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="77.25" thickBot="1">
+    <row r="86" spans="1:8" ht="73" thickBot="1">
       <c r="A86" s="11" t="s">
         <v>121</v>
       </c>
@@ -3648,7 +3641,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="26.25" thickBot="1">
+    <row r="87" spans="1:8" ht="25" thickBot="1">
       <c r="A87" s="11" t="s">
         <v>123</v>
       </c>
@@ -3674,7 +3667,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="141" thickBot="1">
+    <row r="88" spans="1:8" ht="133" thickBot="1">
       <c r="A88" s="9">
         <v>37347</v>
       </c>
@@ -3696,7 +3689,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="153.75" thickBot="1">
+    <row r="89" spans="1:8" ht="145" thickBot="1">
       <c r="A89" s="11" t="s">
         <v>126</v>
       </c>
@@ -3722,7 +3715,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="153.75" thickBot="1">
+    <row r="90" spans="1:8" ht="133" thickBot="1">
       <c r="A90" s="11" t="s">
         <v>127</v>
       </c>
@@ -3748,7 +3741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="26.25" thickBot="1">
+    <row r="91" spans="1:8" ht="25" thickBot="1">
       <c r="A91" s="11" t="s">
         <v>128</v>
       </c>
@@ -3775,42 +3768,42 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="137.25" customHeight="1">
-      <c r="A92" s="36" t="s">
+      <c r="A92" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="38" t="s">
+      <c r="B92" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="27">
         <v>898</v>
       </c>
-      <c r="D92" s="40">
+      <c r="D92" s="27">
         <v>107</v>
       </c>
-      <c r="E92" s="40" t="s">
+      <c r="E92" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="F92" s="40">
+      <c r="F92" s="27">
         <v>244</v>
       </c>
-      <c r="G92" s="40">
-        <v>0</v>
-      </c>
-      <c r="H92" s="40">
+      <c r="G92" s="27">
+        <v>0</v>
+      </c>
+      <c r="H92" s="27">
         <v>1998</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A93" s="37"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-    </row>
-    <row r="94" spans="1:8" ht="39" thickBot="1">
+    <row r="93" spans="1:8" ht="15" thickBot="1">
+      <c r="A93" s="31"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+    </row>
+    <row r="94" spans="1:8" ht="37" thickBot="1">
       <c r="A94" s="11" t="s">
         <v>131</v>
       </c>
@@ -3836,7 +3829,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="90" thickBot="1">
+    <row r="95" spans="1:8" ht="73" thickBot="1">
       <c r="A95" s="11" t="s">
         <v>132</v>
       </c>
@@ -3862,7 +3855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="26.25" thickBot="1">
+    <row r="96" spans="1:8" ht="25" thickBot="1">
       <c r="A96" s="5" t="s">
         <v>133</v>
       </c>
@@ -3888,7 +3881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="64.5" thickBot="1">
+    <row r="97" spans="1:8" ht="61" thickBot="1">
       <c r="A97" s="9">
         <v>37012</v>
       </c>
@@ -3914,7 +3907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="39" thickBot="1">
+    <row r="98" spans="1:8" ht="37" thickBot="1">
       <c r="A98" s="5" t="s">
         <v>137</v>
       </c>
@@ -3940,7 +3933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="26.25" thickBot="1">
+    <row r="99" spans="1:8" ht="25" thickBot="1">
       <c r="A99" s="11" t="s">
         <v>139</v>
       </c>
@@ -3966,7 +3959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="64.5" thickBot="1">
+    <row r="100" spans="1:8" ht="61" thickBot="1">
       <c r="A100" s="5" t="s">
         <v>140</v>
       </c>
@@ -3992,7 +3985,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="179.25" thickBot="1">
+    <row r="101" spans="1:8" ht="169" thickBot="1">
       <c r="A101" s="9">
         <v>37043</v>
       </c>
@@ -4018,7 +4011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="153.75" thickBot="1">
+    <row r="102" spans="1:8" ht="145" thickBot="1">
       <c r="A102" s="11" t="s">
         <v>144</v>
       </c>
@@ -4044,7 +4037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="153.75" thickBot="1">
+    <row r="103" spans="1:8" ht="145" thickBot="1">
       <c r="A103" s="11" t="s">
         <v>145</v>
       </c>
@@ -4070,7 +4063,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="39" thickBot="1">
+    <row r="104" spans="1:8" ht="37" thickBot="1">
       <c r="A104" s="11" t="s">
         <v>146</v>
       </c>
@@ -4096,7 +4089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="408.75" thickBot="1">
+    <row r="105" spans="1:8" ht="385" thickBot="1">
       <c r="A105" s="9">
         <v>37408</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="179.25" thickBot="1">
+    <row r="106" spans="1:8" ht="157" thickBot="1">
       <c r="A106" s="11" t="s">
         <v>149</v>
       </c>
@@ -4148,7 +4141,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="153.75" thickBot="1">
+    <row r="107" spans="1:8" ht="145" thickBot="1">
       <c r="A107" s="11" t="s">
         <v>151</v>
       </c>
@@ -4174,7 +4167,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="179.25" thickBot="1">
+    <row r="108" spans="1:8" ht="169" thickBot="1">
       <c r="A108" s="11" t="s">
         <v>152</v>
       </c>
@@ -4200,7 +4193,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="230.25" thickBot="1">
+    <row r="109" spans="1:8" ht="217" thickBot="1">
       <c r="A109" s="9">
         <v>37773</v>
       </c>
@@ -4226,7 +4219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="64.5" thickBot="1">
+    <row r="110" spans="1:8" ht="61" thickBot="1">
       <c r="A110" s="11" t="s">
         <v>156</v>
       </c>
@@ -4252,7 +4245,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="77.25" thickBot="1">
+    <row r="111" spans="1:8" ht="73" thickBot="1">
       <c r="A111" s="11" t="s">
         <v>157</v>
       </c>
@@ -4278,7 +4271,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="26.25" thickBot="1">
+    <row r="112" spans="1:8" ht="25" thickBot="1">
       <c r="A112" s="11" t="s">
         <v>159</v>
       </c>
@@ -4304,7 +4297,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="243" thickBot="1">
+    <row r="113" spans="1:8" ht="196" thickBot="1">
       <c r="A113" s="9">
         <v>38139</v>
       </c>
@@ -4330,7 +4323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="153.75" thickBot="1">
+    <row r="114" spans="1:8" ht="145" thickBot="1">
       <c r="A114" s="11" t="s">
         <v>162</v>
       </c>
@@ -4356,7 +4349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="153.75" thickBot="1">
+    <row r="115" spans="1:8" ht="145" thickBot="1">
       <c r="A115" s="11" t="s">
         <v>163</v>
       </c>
@@ -4382,7 +4375,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="39" thickBot="1">
+    <row r="116" spans="1:8" ht="37" thickBot="1">
       <c r="A116" s="11" t="s">
         <v>164</v>
       </c>
@@ -4408,7 +4401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="128.25" thickBot="1">
+    <row r="117" spans="1:8" ht="133" thickBot="1">
       <c r="A117" s="5">
         <v>2</v>
       </c>
@@ -4434,7 +4427,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="217.5" thickBot="1">
+    <row r="118" spans="1:8" ht="205" thickBot="1">
       <c r="A118" s="8">
         <v>42006</v>
       </c>
@@ -4460,7 +4453,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="230.25" thickBot="1">
+    <row r="119" spans="1:8" ht="217" thickBot="1">
       <c r="A119" s="9">
         <v>36893</v>
       </c>
@@ -4486,7 +4479,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="153.75" thickBot="1">
+    <row r="120" spans="1:8" ht="145" thickBot="1">
       <c r="A120" s="11" t="s">
         <v>169</v>
       </c>
@@ -4512,7 +4505,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="153.75" thickBot="1">
+    <row r="121" spans="1:8" ht="145" thickBot="1">
       <c r="A121" s="11" t="s">
         <v>170</v>
       </c>
@@ -4538,7 +4531,7 @@
         <v>107.6</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="39" thickBot="1">
+    <row r="122" spans="1:8" ht="37" thickBot="1">
       <c r="A122" s="11" t="s">
         <v>171</v>
       </c>
@@ -4564,7 +4557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="26.25" thickBot="1">
+    <row r="123" spans="1:8" ht="25" thickBot="1">
       <c r="A123" s="11" t="s">
         <v>172</v>
       </c>
@@ -4591,42 +4584,42 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A124" s="31">
+      <c r="A124" s="50">
         <v>3</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="29">
-        <v>904</v>
-      </c>
-      <c r="D124" s="29">
+      <c r="C124" s="41">
+        <v>904</v>
+      </c>
+      <c r="D124" s="41">
         <v>500</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E124" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F124" s="29">
-        <v>0</v>
-      </c>
-      <c r="G124" s="29">
-        <v>0</v>
-      </c>
-      <c r="H124" s="29">
+      <c r="F124" s="41">
+        <v>0</v>
+      </c>
+      <c r="G124" s="41">
+        <v>0</v>
+      </c>
+      <c r="H124" s="41">
         <v>18200</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A125" s="32"/>
-      <c r="B125" s="34"/>
-      <c r="C125" s="30"/>
-      <c r="D125" s="30"/>
-      <c r="E125" s="30"/>
-      <c r="F125" s="30"/>
-      <c r="G125" s="30"/>
-      <c r="H125" s="30"/>
-    </row>
-    <row r="126" spans="1:8" ht="26.25" thickBot="1">
+    <row r="125" spans="1:8" ht="15" thickBot="1">
+      <c r="A125" s="51"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
+    </row>
+    <row r="126" spans="1:8" ht="25" thickBot="1">
       <c r="A126" s="8">
         <v>42007</v>
       </c>
@@ -4678,7 +4671,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="153.75" thickBot="1">
+    <row r="128" spans="1:8" ht="145" thickBot="1">
       <c r="A128" s="11" t="s">
         <v>177</v>
       </c>
@@ -4704,7 +4697,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="153.75" thickBot="1">
+    <row r="129" spans="1:8" ht="145" thickBot="1">
       <c r="A129" s="11" t="s">
         <v>178</v>
       </c>
@@ -4730,7 +4723,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="77.25" thickBot="1">
+    <row r="130" spans="1:8" ht="73" thickBot="1">
       <c r="A130" s="11" t="s">
         <v>179</v>
       </c>
@@ -4756,7 +4749,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="39" thickBot="1">
+    <row r="131" spans="1:8" ht="37" thickBot="1">
       <c r="A131" s="11" t="s">
         <v>180</v>
       </c>
@@ -4782,7 +4775,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="77.25" thickBot="1">
+    <row r="132" spans="1:8" ht="61" thickBot="1">
       <c r="A132" s="11" t="s">
         <v>181</v>
       </c>
@@ -4834,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="153.75" thickBot="1">
+    <row r="134" spans="1:8" ht="145" thickBot="1">
       <c r="A134" s="23">
         <v>36925</v>
       </c>
@@ -4860,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="153.75" thickBot="1">
+    <row r="135" spans="1:8" ht="145" thickBot="1">
       <c r="A135" s="11" t="s">
         <v>186</v>
       </c>
@@ -4886,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="39" thickBot="1">
+    <row r="136" spans="1:8" ht="37" thickBot="1">
       <c r="A136" s="11" t="s">
         <v>187</v>
       </c>
@@ -4912,43 +4905,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="409.6" customHeight="1">
-      <c r="A137" s="45">
+    <row r="137" spans="1:8" ht="409.5" customHeight="1">
+      <c r="A137" s="52">
         <v>42066</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C137" s="29">
-        <v>904</v>
-      </c>
-      <c r="D137" s="29">
+      <c r="C137" s="41">
+        <v>904</v>
+      </c>
+      <c r="D137" s="41">
         <v>503</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="E137" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="F137" s="29">
-        <v>0</v>
-      </c>
-      <c r="G137" s="29">
-        <v>0</v>
-      </c>
-      <c r="H137" s="29">
+      <c r="F137" s="41">
+        <v>0</v>
+      </c>
+      <c r="G137" s="41">
+        <v>0</v>
+      </c>
+      <c r="H137" s="41">
         <v>3000</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A138" s="46"/>
-      <c r="B138" s="34"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-    </row>
-    <row r="139" spans="1:8" ht="153.75" thickBot="1">
+    <row r="138" spans="1:8" ht="15" thickBot="1">
+      <c r="A138" s="53"/>
+      <c r="B138" s="49"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
+    </row>
+    <row r="139" spans="1:8" ht="145" thickBot="1">
       <c r="A139" s="23">
         <v>36953</v>
       </c>
@@ -4974,7 +4967,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="153.75" thickBot="1">
+    <row r="140" spans="1:8" ht="145" thickBot="1">
       <c r="A140" s="11" t="s">
         <v>190</v>
       </c>
@@ -5000,7 +4993,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="39" thickBot="1">
+    <row r="141" spans="1:8" ht="37" thickBot="1">
       <c r="A141" s="11" t="s">
         <v>191</v>
       </c>
@@ -5026,7 +5019,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="77.25" thickBot="1">
+    <row r="142" spans="1:8" ht="61" thickBot="1">
       <c r="A142" s="11" t="s">
         <v>192</v>
       </c>
@@ -5052,7 +5045,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="179.25" thickBot="1">
+    <row r="143" spans="1:8" ht="169" thickBot="1">
       <c r="A143" s="8">
         <v>42097</v>
       </c>
@@ -5076,7 +5069,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="153.75" thickBot="1">
+    <row r="144" spans="1:8" ht="145" thickBot="1">
       <c r="A144" s="23">
         <v>36984</v>
       </c>
@@ -5102,7 +5095,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="153.75" thickBot="1">
+    <row r="145" spans="1:8" ht="145" thickBot="1">
       <c r="A145" s="11" t="s">
         <v>195</v>
       </c>
@@ -5128,7 +5121,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="153.75" thickBot="1">
+    <row r="146" spans="1:8" ht="145" thickBot="1">
       <c r="A146" s="11" t="s">
         <v>196</v>
       </c>
@@ -5154,7 +5147,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="26.25" thickBot="1">
+    <row r="147" spans="1:8" ht="25" thickBot="1">
       <c r="A147" s="5">
         <v>4</v>
       </c>
@@ -5180,7 +5173,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="77.25" thickBot="1">
+    <row r="148" spans="1:8" ht="73" thickBot="1">
       <c r="A148" s="5" t="s">
         <v>198</v>
       </c>
@@ -5206,7 +5199,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="217.5" thickBot="1">
+    <row r="149" spans="1:8" ht="205" thickBot="1">
       <c r="A149" s="9">
         <v>36895</v>
       </c>
@@ -5232,7 +5225,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="153.75" thickBot="1">
+    <row r="150" spans="1:8" ht="145" thickBot="1">
       <c r="A150" s="11" t="s">
         <v>202</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="153.75" thickBot="1">
+    <row r="151" spans="1:8" ht="145" thickBot="1">
       <c r="A151" s="11" t="s">
         <v>203</v>
       </c>
@@ -5284,7 +5277,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="39" thickBot="1">
+    <row r="152" spans="1:8" ht="37" thickBot="1">
       <c r="A152" s="11" t="s">
         <v>204</v>
       </c>
@@ -5310,7 +5303,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="26.25" thickBot="1">
+    <row r="153" spans="1:8" ht="25" thickBot="1">
       <c r="A153" s="11" t="s">
         <v>206</v>
       </c>
@@ -5336,7 +5329,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="243" thickBot="1">
+    <row r="154" spans="1:8" ht="229" thickBot="1">
       <c r="A154" s="8">
         <v>42039</v>
       </c>
@@ -5362,7 +5355,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="153.75" thickBot="1">
+    <row r="155" spans="1:8" ht="145" thickBot="1">
       <c r="A155" s="23">
         <v>36926</v>
       </c>
@@ -5388,7 +5381,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="153.75" thickBot="1">
+    <row r="156" spans="1:8" ht="145" thickBot="1">
       <c r="A156" s="11" t="s">
         <v>209</v>
       </c>
@@ -5414,7 +5407,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="39" thickBot="1">
+    <row r="157" spans="1:8" ht="37" thickBot="1">
       <c r="A157" s="11" t="s">
         <v>211</v>
       </c>
@@ -5440,7 +5433,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="26.25" thickBot="1">
+    <row r="158" spans="1:8" ht="25" thickBot="1">
       <c r="A158" s="11" t="s">
         <v>212</v>
       </c>
@@ -5466,45 +5459,45 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="25.5">
-      <c r="A159" s="31">
+    <row r="159" spans="1:8" ht="24">
+      <c r="A159" s="50">
         <v>5</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C159" s="29">
-        <v>904</v>
-      </c>
-      <c r="D159" s="29">
+      <c r="C159" s="41">
+        <v>904</v>
+      </c>
+      <c r="D159" s="41">
         <v>800</v>
       </c>
-      <c r="E159" s="29" t="s">
+      <c r="E159" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F159" s="29">
-        <v>0</v>
-      </c>
-      <c r="G159" s="29">
-        <v>0</v>
-      </c>
-      <c r="H159" s="29">
+      <c r="F159" s="41">
+        <v>0</v>
+      </c>
+      <c r="G159" s="41">
+        <v>0</v>
+      </c>
+      <c r="H159" s="41">
         <v>8591.7999999999993</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="39" thickBot="1">
-      <c r="A160" s="32"/>
+    <row r="160" spans="1:8" ht="37" thickBot="1">
+      <c r="A160" s="51"/>
       <c r="B160" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-    </row>
-    <row r="161" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+    </row>
+    <row r="161" spans="1:8" ht="15" thickBot="1">
       <c r="A161" s="8">
         <v>42009</v>
       </c>
@@ -5530,7 +5523,7 @@
         <v>8591.7999999999993</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="217.5" thickBot="1">
+    <row r="162" spans="1:8" ht="205" thickBot="1">
       <c r="A162" s="9">
         <v>36896</v>
       </c>
@@ -5556,7 +5549,7 @@
         <v>8591.7999999999993</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="153.75" thickBot="1">
+    <row r="163" spans="1:8" ht="145" thickBot="1">
       <c r="A163" s="11" t="s">
         <v>218</v>
       </c>
@@ -5582,7 +5575,7 @@
         <v>8591.7999999999993</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="153.75" thickBot="1">
+    <row r="164" spans="1:8" ht="145" thickBot="1">
       <c r="A164" s="11" t="s">
         <v>219</v>
       </c>
@@ -5608,7 +5601,7 @@
         <v>8591.7999999999993</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="39" thickBot="1">
+    <row r="165" spans="1:8" ht="37" thickBot="1">
       <c r="A165" s="11" t="s">
         <v>220</v>
       </c>
@@ -5634,7 +5627,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="26.25" thickBot="1">
+    <row r="166" spans="1:8" ht="25" thickBot="1">
       <c r="A166" s="11" t="s">
         <v>221</v>
       </c>
@@ -5660,7 +5653,7 @@
         <v>4091.8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="51.75" thickBot="1">
+    <row r="167" spans="1:8" ht="49" thickBot="1">
       <c r="A167" s="5">
         <v>6</v>
       </c>
@@ -5686,7 +5679,7 @@
         <v>6698</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="77.25" thickBot="1">
+    <row r="168" spans="1:8" ht="73" thickBot="1">
       <c r="A168" s="8">
         <v>42010</v>
       </c>
@@ -5713,52 +5706,52 @@
       </c>
     </row>
     <row r="169" spans="1:8" ht="198.75" customHeight="1">
-      <c r="A169" s="50">
+      <c r="A169" s="44">
         <v>36897</v>
       </c>
-      <c r="B169" s="33" t="s">
+      <c r="B169" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="C169" s="29">
-        <v>904</v>
-      </c>
-      <c r="D169" s="29">
+      <c r="C169" s="41">
+        <v>904</v>
+      </c>
+      <c r="D169" s="41">
         <v>1003</v>
       </c>
-      <c r="E169" s="29" t="s">
+      <c r="E169" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="F169" s="29">
-        <v>0</v>
-      </c>
-      <c r="G169" s="29">
-        <v>0</v>
-      </c>
-      <c r="H169" s="29">
+      <c r="F169" s="41">
+        <v>0</v>
+      </c>
+      <c r="G169" s="41">
+        <v>0</v>
+      </c>
+      <c r="H169" s="41">
         <v>376.8</v>
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="51"/>
-      <c r="B170" s="53"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="35"/>
-      <c r="H170" s="35"/>
-    </row>
-    <row r="171" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A171" s="52"/>
-      <c r="B171" s="34"/>
-      <c r="C171" s="30"/>
-      <c r="D171" s="30"/>
-      <c r="E171" s="30"/>
-      <c r="F171" s="30"/>
-      <c r="G171" s="30"/>
-      <c r="H171" s="30"/>
-    </row>
-    <row r="172" spans="1:8" ht="115.5" thickBot="1">
+      <c r="A170" s="45"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="42"/>
+    </row>
+    <row r="171" spans="1:8" ht="15" thickBot="1">
+      <c r="A171" s="46"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
+    </row>
+    <row r="172" spans="1:8" ht="109" thickBot="1">
       <c r="A172" s="11" t="s">
         <v>226</v>
       </c>
@@ -5784,7 +5777,7 @@
         <v>376.8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="77.25" thickBot="1">
+    <row r="173" spans="1:8" ht="73" thickBot="1">
       <c r="A173" s="11" t="s">
         <v>228</v>
       </c>
@@ -5810,7 +5803,7 @@
         <v>376.8</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="141" thickBot="1">
+    <row r="174" spans="1:8" ht="133" thickBot="1">
       <c r="A174" s="11" t="s">
         <v>230</v>
       </c>
@@ -5836,7 +5829,7 @@
         <v>376.8</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="39" thickBot="1">
+    <row r="175" spans="1:8" ht="37" thickBot="1">
       <c r="A175" s="8">
         <v>42041</v>
       </c>
@@ -5862,7 +5855,7 @@
         <v>6321.2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="285.75" thickBot="1">
+    <row r="176" spans="1:8" ht="222" thickBot="1">
       <c r="A176" s="9">
         <v>36928</v>
       </c>
@@ -5888,7 +5881,7 @@
         <v>1355.4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="128.25" thickBot="1">
+    <row r="177" spans="1:8" ht="109" thickBot="1">
       <c r="A177" s="11" t="s">
         <v>235</v>
       </c>
@@ -5914,7 +5907,7 @@
         <v>1259.2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="192" thickBot="1">
+    <row r="178" spans="1:8" ht="181" thickBot="1">
       <c r="A178" s="11" t="s">
         <v>236</v>
       </c>
@@ -5940,7 +5933,7 @@
         <v>1259.2</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="26.25" thickBot="1">
+    <row r="179" spans="1:8" ht="25" thickBot="1">
       <c r="A179" s="11" t="s">
         <v>237</v>
       </c>
@@ -5966,7 +5959,7 @@
         <v>967.1</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="64.5" thickBot="1">
+    <row r="180" spans="1:8" ht="61" thickBot="1">
       <c r="A180" s="11" t="s">
         <v>238</v>
       </c>
@@ -5992,7 +5985,7 @@
         <v>292.10000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="153.75" thickBot="1">
+    <row r="181" spans="1:8" ht="145" thickBot="1">
       <c r="A181" s="11" t="s">
         <v>239</v>
       </c>
@@ -6018,7 +6011,7 @@
         <v>96.2</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="153.75" thickBot="1">
+    <row r="182" spans="1:8" ht="133" thickBot="1">
       <c r="A182" s="11" t="s">
         <v>236</v>
       </c>
@@ -6044,7 +6037,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="26.25" thickBot="1">
+    <row r="183" spans="1:8" ht="25" thickBot="1">
       <c r="A183" s="11" t="s">
         <v>240</v>
       </c>
@@ -6070,7 +6063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="39" thickBot="1">
+    <row r="184" spans="1:8" ht="37" thickBot="1">
       <c r="A184" s="11" t="s">
         <v>241</v>
       </c>
@@ -6096,7 +6089,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="77.25" thickBot="1">
+    <row r="185" spans="1:8" ht="61" thickBot="1">
       <c r="A185" s="11" t="s">
         <v>242</v>
       </c>
@@ -6122,7 +6115,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="90" thickBot="1">
+    <row r="186" spans="1:8" ht="73" thickBot="1">
       <c r="A186" s="11" t="s">
         <v>243</v>
       </c>
@@ -6149,42 +6142,42 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="137.25" customHeight="1">
-      <c r="A187" s="36" t="s">
+      <c r="A187" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="B187" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="C187" s="40">
-        <v>904</v>
-      </c>
-      <c r="D187" s="40">
+      <c r="C187" s="27">
+        <v>904</v>
+      </c>
+      <c r="D187" s="27">
         <v>1004</v>
       </c>
-      <c r="E187" s="48" t="s">
+      <c r="E187" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="F187" s="48">
+      <c r="F187" s="36">
         <v>244</v>
       </c>
-      <c r="G187" s="40">
-        <v>0</v>
-      </c>
-      <c r="H187" s="40">
+      <c r="G187" s="27">
+        <v>0</v>
+      </c>
+      <c r="H187" s="27">
         <v>44.4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A188" s="37"/>
-      <c r="B188" s="39"/>
-      <c r="C188" s="41"/>
-      <c r="D188" s="41"/>
-      <c r="E188" s="49"/>
-      <c r="F188" s="49"/>
-      <c r="G188" s="41"/>
-      <c r="H188" s="41"/>
-    </row>
-    <row r="189" spans="1:8" ht="39" thickBot="1">
+    <row r="188" spans="1:8" ht="15" thickBot="1">
+      <c r="A188" s="31"/>
+      <c r="B188" s="34"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="37"/>
+      <c r="F188" s="37"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+    </row>
+    <row r="189" spans="1:8" ht="37" thickBot="1">
       <c r="A189" s="11" t="s">
         <v>245</v>
       </c>
@@ -6211,62 +6204,62 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A190" s="36" t="s">
+      <c r="A190" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="B190" s="38" t="s">
+      <c r="B190" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C190" s="40">
-        <v>904</v>
-      </c>
-      <c r="D190" s="40">
+      <c r="C190" s="27">
+        <v>904</v>
+      </c>
+      <c r="D190" s="27">
         <v>1004</v>
       </c>
-      <c r="E190" s="48" t="s">
+      <c r="E190" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="F190" s="48">
+      <c r="F190" s="36">
         <v>244</v>
       </c>
-      <c r="G190" s="40">
+      <c r="G190" s="27">
         <v>340</v>
       </c>
-      <c r="H190" s="40">
+      <c r="H190" s="27">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="54"/>
-      <c r="B191" s="55"/>
-      <c r="C191" s="42"/>
-      <c r="D191" s="42"/>
-      <c r="E191" s="47"/>
-      <c r="F191" s="47"/>
-      <c r="G191" s="42"/>
-      <c r="H191" s="42"/>
+      <c r="A191" s="30"/>
+      <c r="B191" s="33"/>
+      <c r="C191" s="35"/>
+      <c r="D191" s="35"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="40"/>
+      <c r="G191" s="35"/>
+      <c r="H191" s="35"/>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="54"/>
-      <c r="B192" s="55"/>
-      <c r="C192" s="42"/>
-      <c r="D192" s="42"/>
-      <c r="E192" s="47"/>
-      <c r="F192" s="47"/>
-      <c r="G192" s="42"/>
-      <c r="H192" s="42"/>
-    </row>
-    <row r="193" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A193" s="37"/>
-      <c r="B193" s="39"/>
-      <c r="C193" s="41"/>
-      <c r="D193" s="41"/>
-      <c r="E193" s="49"/>
-      <c r="F193" s="49"/>
-      <c r="G193" s="41"/>
-      <c r="H193" s="41"/>
-    </row>
-    <row r="194" spans="1:8" ht="342.75" thickBot="1">
+      <c r="A192" s="30"/>
+      <c r="B192" s="33"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="40"/>
+      <c r="G192" s="35"/>
+      <c r="H192" s="35"/>
+    </row>
+    <row r="193" spans="1:8" ht="15" thickBot="1">
+      <c r="A193" s="31"/>
+      <c r="B193" s="34"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="37"/>
+      <c r="F193" s="37"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+    </row>
+    <row r="194" spans="1:8" ht="274" thickBot="1">
       <c r="A194" s="9">
         <v>37293</v>
       </c>
@@ -6293,42 +6286,42 @@
       </c>
     </row>
     <row r="195" spans="1:8" ht="99" customHeight="1">
-      <c r="A195" s="36" t="s">
+      <c r="A195" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="B195" s="56" t="s">
+      <c r="B195" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="C195" s="40">
-        <v>904</v>
-      </c>
-      <c r="D195" s="40">
+      <c r="C195" s="27">
+        <v>904</v>
+      </c>
+      <c r="D195" s="27">
         <v>1004</v>
       </c>
-      <c r="E195" s="48" t="s">
+      <c r="E195" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="F195" s="48">
+      <c r="F195" s="36">
         <v>310</v>
       </c>
-      <c r="G195" s="40">
-        <v>0</v>
-      </c>
-      <c r="H195" s="40">
+      <c r="G195" s="27">
+        <v>0</v>
+      </c>
+      <c r="H195" s="27">
         <v>3093.9</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A196" s="37"/>
-      <c r="B196" s="57"/>
-      <c r="C196" s="41"/>
-      <c r="D196" s="41"/>
-      <c r="E196" s="49"/>
-      <c r="F196" s="49"/>
-      <c r="G196" s="41"/>
-      <c r="H196" s="41"/>
-    </row>
-    <row r="197" spans="1:8" ht="179.25" thickBot="1">
+    <row r="196" spans="1:8" ht="15" thickBot="1">
+      <c r="A196" s="31"/>
+      <c r="B196" s="39"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="37"/>
+      <c r="F196" s="37"/>
+      <c r="G196" s="28"/>
+      <c r="H196" s="28"/>
+    </row>
+    <row r="197" spans="1:8" ht="157" thickBot="1">
       <c r="A197" s="11" t="s">
         <v>251</v>
       </c>
@@ -6354,7 +6347,7 @@
         <v>3093.9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="90" thickBot="1">
+    <row r="198" spans="1:8" ht="73" thickBot="1">
       <c r="A198" s="11" t="s">
         <v>253</v>
       </c>
@@ -6380,7 +6373,7 @@
         <v>3093.9</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="314.25" thickBot="1">
+    <row r="199" spans="1:8" ht="261" thickBot="1">
       <c r="A199" s="9">
         <v>37658</v>
       </c>
@@ -6406,45 +6399,45 @@
         <v>1871.9</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="76.5">
-      <c r="A200" s="36" t="s">
+    <row r="200" spans="1:8" ht="60">
+      <c r="A200" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B200" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="C200" s="40">
-        <v>904</v>
-      </c>
-      <c r="D200" s="40">
+      <c r="C200" s="27">
+        <v>904</v>
+      </c>
+      <c r="D200" s="27">
         <v>1004</v>
       </c>
-      <c r="E200" s="48" t="s">
+      <c r="E200" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F200" s="48">
+      <c r="F200" s="36">
         <v>300</v>
       </c>
-      <c r="G200" s="40">
-        <v>0</v>
-      </c>
-      <c r="H200" s="40">
+      <c r="G200" s="27">
+        <v>0</v>
+      </c>
+      <c r="H200" s="27">
         <v>1871.9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="26.25" thickBot="1">
-      <c r="A201" s="37"/>
+    <row r="201" spans="1:8" ht="25" thickBot="1">
+      <c r="A201" s="31"/>
       <c r="B201" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C201" s="41"/>
-      <c r="D201" s="41"/>
-      <c r="E201" s="49"/>
-      <c r="F201" s="49"/>
-      <c r="G201" s="41"/>
-      <c r="H201" s="41"/>
-    </row>
-    <row r="202" spans="1:8" ht="51.75" thickBot="1">
+      <c r="C201" s="28"/>
+      <c r="D201" s="28"/>
+      <c r="E201" s="37"/>
+      <c r="F201" s="37"/>
+      <c r="G201" s="28"/>
+      <c r="H201" s="28"/>
+    </row>
+    <row r="202" spans="1:8" ht="49" thickBot="1">
       <c r="A202" s="11" t="s">
         <v>260</v>
       </c>
@@ -6470,7 +6463,7 @@
         <v>1871.9</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="39" thickBot="1">
+    <row r="203" spans="1:8" ht="37" thickBot="1">
       <c r="A203" s="11" t="s">
         <v>262</v>
       </c>
@@ -6496,7 +6489,7 @@
         <v>1871.9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="77.25" thickBot="1">
+    <row r="204" spans="1:8" ht="73" thickBot="1">
       <c r="A204" s="5">
         <v>7</v>
       </c>
@@ -6522,7 +6515,7 @@
         <v>777.3</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="64.5" thickBot="1">
+    <row r="205" spans="1:8" ht="61" thickBot="1">
       <c r="A205" s="8">
         <v>42011</v>
       </c>
@@ -6548,7 +6541,7 @@
         <v>777.3</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="153.75" thickBot="1">
+    <row r="206" spans="1:8" ht="145" thickBot="1">
       <c r="A206" s="9">
         <v>36898</v>
       </c>
@@ -6574,7 +6567,7 @@
         <v>777.3</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="153.75" thickBot="1">
+    <row r="207" spans="1:8" ht="145" thickBot="1">
       <c r="A207" s="11" t="s">
         <v>268</v>
       </c>
@@ -6601,82 +6594,82 @@
       </c>
     </row>
     <row r="208" spans="1:8" ht="77.25" customHeight="1">
-      <c r="A208" s="36" t="s">
+      <c r="A208" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="C208" s="40">
-        <v>904</v>
-      </c>
-      <c r="D208" s="40">
+      <c r="C208" s="27">
+        <v>904</v>
+      </c>
+      <c r="D208" s="27">
         <v>1202</v>
       </c>
-      <c r="E208" s="40" t="s">
+      <c r="E208" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="F208" s="40">
+      <c r="F208" s="27">
         <v>244</v>
       </c>
-      <c r="G208" s="40">
-        <v>0</v>
-      </c>
-      <c r="H208" s="40">
+      <c r="G208" s="27">
+        <v>0</v>
+      </c>
+      <c r="H208" s="27">
         <v>777.3</v>
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="54"/>
-      <c r="B209" s="55"/>
-      <c r="C209" s="42"/>
-      <c r="D209" s="42"/>
-      <c r="E209" s="42"/>
-      <c r="F209" s="42"/>
-      <c r="G209" s="42"/>
-      <c r="H209" s="42"/>
+      <c r="A209" s="30"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="35"/>
+      <c r="D209" s="35"/>
+      <c r="E209" s="35"/>
+      <c r="F209" s="35"/>
+      <c r="G209" s="35"/>
+      <c r="H209" s="35"/>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="54"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="42"/>
-      <c r="D210" s="42"/>
-      <c r="E210" s="42"/>
-      <c r="F210" s="42"/>
-      <c r="G210" s="42"/>
-      <c r="H210" s="42"/>
+      <c r="A210" s="30"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="35"/>
+      <c r="D210" s="35"/>
+      <c r="E210" s="35"/>
+      <c r="F210" s="35"/>
+      <c r="G210" s="35"/>
+      <c r="H210" s="35"/>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="54"/>
-      <c r="B211" s="55"/>
-      <c r="C211" s="42"/>
-      <c r="D211" s="42"/>
-      <c r="E211" s="42"/>
-      <c r="F211" s="42"/>
-      <c r="G211" s="42"/>
-      <c r="H211" s="42"/>
+      <c r="A211" s="30"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="35"/>
+      <c r="E211" s="35"/>
+      <c r="F211" s="35"/>
+      <c r="G211" s="35"/>
+      <c r="H211" s="35"/>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="54"/>
-      <c r="B212" s="55"/>
-      <c r="C212" s="42"/>
-      <c r="D212" s="42"/>
-      <c r="E212" s="42"/>
-      <c r="F212" s="42"/>
-      <c r="G212" s="42"/>
-      <c r="H212" s="42"/>
-    </row>
-    <row r="213" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A213" s="37"/>
-      <c r="B213" s="39"/>
-      <c r="C213" s="41"/>
-      <c r="D213" s="41"/>
-      <c r="E213" s="41"/>
-      <c r="F213" s="41"/>
-      <c r="G213" s="41"/>
-      <c r="H213" s="41"/>
-    </row>
-    <row r="214" spans="1:8" ht="39" thickBot="1">
+      <c r="A212" s="30"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="35"/>
+      <c r="D212" s="35"/>
+      <c r="E212" s="35"/>
+      <c r="F212" s="35"/>
+      <c r="G212" s="35"/>
+      <c r="H212" s="35"/>
+    </row>
+    <row r="213" spans="1:8" ht="15" thickBot="1">
+      <c r="A213" s="31"/>
+      <c r="B213" s="34"/>
+      <c r="C213" s="28"/>
+      <c r="D213" s="28"/>
+      <c r="E213" s="28"/>
+      <c r="F213" s="28"/>
+      <c r="G213" s="28"/>
+      <c r="H213" s="28"/>
+    </row>
+    <row r="214" spans="1:8" ht="37" thickBot="1">
       <c r="A214" s="11" t="s">
         <v>271</v>
       </c>
@@ -6702,7 +6695,7 @@
         <v>777.3</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="15.75" thickBot="1">
+    <row r="215" spans="1:8" ht="15" thickBot="1">
       <c r="A215" s="2"/>
       <c r="B215" s="6" t="s">
         <v>272</v>
@@ -6718,93 +6711,26 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="H200:H201"/>
-    <mergeCell ref="A208:A213"/>
-    <mergeCell ref="B208:B213"/>
-    <mergeCell ref="C208:C213"/>
-    <mergeCell ref="D208:D213"/>
-    <mergeCell ref="E208:E213"/>
-    <mergeCell ref="F208:F213"/>
-    <mergeCell ref="G208:G213"/>
-    <mergeCell ref="H208:H213"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="G200:G201"/>
-    <mergeCell ref="G190:G193"/>
-    <mergeCell ref="H190:H193"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="G195:G196"/>
-    <mergeCell ref="H195:H196"/>
-    <mergeCell ref="A190:A193"/>
-    <mergeCell ref="B190:B193"/>
-    <mergeCell ref="C190:C193"/>
-    <mergeCell ref="D190:D193"/>
-    <mergeCell ref="E190:E193"/>
-    <mergeCell ref="F190:F193"/>
-    <mergeCell ref="G169:G171"/>
-    <mergeCell ref="H169:H171"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="E187:E188"/>
-    <mergeCell ref="F187:F188"/>
-    <mergeCell ref="G187:G188"/>
-    <mergeCell ref="H187:H188"/>
-    <mergeCell ref="A169:A171"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="C169:C171"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="E169:E171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="G137:G138"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="A159:A160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="F137:F138"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
@@ -6827,54 +6753,133 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G137:G138"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="F137:F138"/>
+    <mergeCell ref="G169:G171"/>
+    <mergeCell ref="H169:H171"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
+    <mergeCell ref="E187:E188"/>
+    <mergeCell ref="F187:F188"/>
+    <mergeCell ref="G187:G188"/>
+    <mergeCell ref="H187:H188"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="C169:C171"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="E169:E171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="G190:G193"/>
+    <mergeCell ref="H190:H193"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="G195:G196"/>
+    <mergeCell ref="H195:H196"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="B190:B193"/>
+    <mergeCell ref="C190:C193"/>
+    <mergeCell ref="D190:D193"/>
+    <mergeCell ref="E190:E193"/>
+    <mergeCell ref="F190:F193"/>
+    <mergeCell ref="H200:H201"/>
+    <mergeCell ref="A208:A213"/>
+    <mergeCell ref="B208:B213"/>
+    <mergeCell ref="C208:C213"/>
+    <mergeCell ref="D208:D213"/>
+    <mergeCell ref="E208:E213"/>
+    <mergeCell ref="F208:F213"/>
+    <mergeCell ref="G208:G213"/>
+    <mergeCell ref="H208:H213"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="G200:G201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>